--- a/data/pdsw-ceph-crc-impact.xlsx
+++ b/data/pdsw-ceph-crc-impact.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="220" windowWidth="24720" windowHeight="17500" tabRatio="500"/>
+    <workbookView xWindow="9660" yWindow="5200" windowWidth="26900" windowHeight="20560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="14">
   <si>
     <t>clients</t>
   </si>
@@ -109,8 +110,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -143,7 +152,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -158,6 +167,10 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -172,6 +185,10 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,11 +446,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2096126680"/>
-        <c:axId val="2096886040"/>
+        <c:axId val="2114542344"/>
+        <c:axId val="2114545320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2096126680"/>
+        <c:axId val="2114542344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -442,7 +459,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096886040"/>
+        <c:crossAx val="2114545320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -450,7 +467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096886040"/>
+        <c:axId val="2114545320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -480,13 +497,424 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096126680"/>
+        <c:crossAx val="2114542344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Impact of CRC32 for Write</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Write (w/ CRC)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$23:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 client</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 clients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6 clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>756.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2149.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2275.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Write (w/o CRC)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$23:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 client</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 clients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6 clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1588.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5230.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4997.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2125041592"/>
+        <c:axId val="2125053048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2125041592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2125053048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2125053048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2125041592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Impact of CRC32 for Read</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Read (w/ CRC)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$32:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 client</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 clients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6 clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>451.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>914.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>802.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Read (w/o CRC)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$32:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 client</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 clients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6 clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1166.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>513.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>335.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2131719736"/>
+        <c:axId val="2131526536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2131719736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2131526536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2131526536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2131719736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -529,6 +957,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3" title="Impact of disabling CRC32 (Write)"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -859,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1086,6 +1574,88 @@
         <v>335.03</v>
       </c>
     </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>756.74</v>
+      </c>
+      <c r="C23">
+        <v>1588.63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>2149.25</v>
+      </c>
+      <c r="C24">
+        <v>5230.9799999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>2275.92</v>
+      </c>
+      <c r="C25">
+        <v>4997.84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>451.99</v>
+      </c>
+      <c r="C32">
+        <v>1166.47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>914.53</v>
+      </c>
+      <c r="C33">
+        <v>513.97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>802.97</v>
+      </c>
+      <c r="C34">
+        <v>335.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1096,4 +1666,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>